--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTY\online_store_selenium\untitled\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{102E0583-9518-4B2B-9BD6-1AA1ADA65839}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87598B88-96B1-430F-BD9B-20522054D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="396" windowWidth="23040" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home page product list" sheetId="1" r:id="rId1"/>
+    <sheet name="basic page footer links" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>Rampers niemowlęcy na zamek, rakiety</t>
   </si>
@@ -88,6 +89,60 @@
   </si>
   <si>
     <t>Pajac niemowlęcy na zamek liście na grafitowym</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zwroty i reklamacje </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Regulamin </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Kapciach </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozmiary / Pranie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Body EasyOn </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Opinie </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twoje zamówienia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ustawienia konta </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Przechowalnia </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Formy płatności </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czas i koszty dostawy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Polityka prywatności </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Współpraca / Hurt </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ciekawe miejsca </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kontakt i dane firmy </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sklep z ubrankami niemowlęcymi jest na sprzedaż. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">O Nas </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blog </t>
   </si>
 </sst>
 </file>
@@ -123,8 +178,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -407,7 +463,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
@@ -524,4 +580,112 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AFCD8A-1D18-4065-BC2A-9FF2747B6564}">
+  <dimension ref="A1:A18"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="50.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTY\online_store_selenium\untitled\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87598B88-96B1-430F-BD9B-20522054D2E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C2E0EA-DD76-4977-A1E0-7C9406BA866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home page product list" sheetId="1" r:id="rId1"/>
     <sheet name="basic page footer links" sheetId="2" r:id="rId2"/>
+    <sheet name="clients" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
   <si>
     <t>Rampers niemowlęcy na zamek, rakiety</t>
   </si>
@@ -143,16 +144,129 @@
   </si>
   <si>
     <t xml:space="preserve">Blog </t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>first name</t>
+  </si>
+  <si>
+    <t>last name</t>
+  </si>
+  <si>
+    <t>phone number</t>
+  </si>
+  <si>
+    <t>is company</t>
+  </si>
+  <si>
+    <t>street</t>
+  </si>
+  <si>
+    <t>post code</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kataryna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anna </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria </t>
+  </si>
+  <si>
+    <t>Leona</t>
+  </si>
+  <si>
+    <t>Henryka</t>
+  </si>
+  <si>
+    <t>Ludmiła</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aganemnon </t>
+  </si>
+  <si>
+    <t>Opaczny</t>
+  </si>
+  <si>
+    <t>Herkules</t>
+  </si>
+  <si>
+    <t>Olimpijski</t>
+  </si>
+  <si>
+    <t>31-333</t>
+  </si>
+  <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>33-311</t>
+  </si>
+  <si>
+    <t>Pacanów</t>
+  </si>
+  <si>
+    <t>11-666</t>
+  </si>
+  <si>
+    <t>ul. Nieistniejąca 2</t>
+  </si>
+  <si>
+    <t>Bżęczyszczykiewicze</t>
+  </si>
+  <si>
+    <t>ul. Niecodłuższa 33/4c</t>
+  </si>
+  <si>
+    <t>ul. Absolutnienajdłuższajakamożeprzejść 44 / 21 A</t>
+  </si>
+  <si>
+    <t>Koniuszowice 7</t>
+  </si>
+  <si>
+    <t>55-565</t>
+  </si>
+  <si>
+    <t>Kataryna@gmail.com</t>
+  </si>
+  <si>
+    <t>maria222@gmail.com</t>
+  </si>
+  <si>
+    <t>monumia@wp.pl</t>
+  </si>
+  <si>
+    <t>Akon990pp@op.pl</t>
+  </si>
+  <si>
+    <t>Demigod@oo.com</t>
+  </si>
+  <si>
+    <t>ul. Krótka 1</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -175,14 +289,27 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hiperłącze" xfId="1" builtinId="8"/>
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -586,7 +713,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7AFCD8A-1D18-4065-BC2A-9FF2747B6564}">
   <dimension ref="A1:A18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
@@ -596,96 +723,285 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" s="1" t="s">
+      <c r="A2" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
+      <c r="A4" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" s="1" t="s">
+      <c r="A5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
+      <c r="A9" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
+      <c r="A10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" s="1" t="s">
+      <c r="A11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
+      <c r="A12" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" s="1" t="s">
+      <c r="A13" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="A15" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
+      <c r="A16" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="1" t="s">
+      <c r="A17" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
+      <c r="A18" t="s">
         <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBFE6056-B553-42A4-8ED8-9C9071CB6BC2}">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="24.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="20.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="15" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14" style="2" customWidth="1"/>
+    <col min="5" max="5" width="8.88671875" style="2"/>
+    <col min="6" max="6" width="43.109375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21" style="2" customWidth="1"/>
+    <col min="8" max="8" width="42" style="2" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="39" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="D2" s="4">
+        <v>123123123</v>
+      </c>
+      <c r="E2" s="2">
+        <v>0</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D3" s="4">
+        <v>799799799</v>
+      </c>
+      <c r="E3" s="2">
+        <v>0</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4" s="4">
+        <v>888888999</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D5" s="4">
+        <v>320129099</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G5" s="4">
+        <v>12222</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D6" s="4">
+        <v>444232421</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{691D5E2D-021F-4DC6-8E02-F5F1D11140CD}"/>
+    <hyperlink ref="A3" r:id="rId2" xr:uid="{6DF350A7-7076-4F14-ABF3-8D3FB4BC5CCF}"/>
+    <hyperlink ref="A4" r:id="rId3" xr:uid="{911C9D65-9F25-4571-8D39-ACDCD4A3DA56}"/>
+    <hyperlink ref="A5" r:id="rId4" xr:uid="{65D0A2F3-3F00-419B-A229-DAE34822DCBC}"/>
+    <hyperlink ref="A6" r:id="rId5" xr:uid="{883D663E-9FEA-429C-B166-5188591B32FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/src/test/resources/data.xlsx
+++ b/src/test/resources/data.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TESTY\online_store_selenium\untitled\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C2E0EA-DD76-4977-A1E0-7C9406BA866E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3316F27B-46A5-40EA-8907-7920AB0D5DB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="396" windowWidth="23040" windowHeight="11964" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="home page product list" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="81">
   <si>
     <t>Rampers niemowlęcy na zamek, rakiety</t>
   </si>
@@ -170,15 +170,6 @@
     <t>city</t>
   </si>
   <si>
-    <t xml:space="preserve">Kataryna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Anna </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Maria </t>
-  </si>
-  <si>
     <t>Leona</t>
   </si>
   <si>
@@ -188,9 +179,6 @@
     <t>Ludmiła</t>
   </si>
   <si>
-    <t xml:space="preserve">Aganemnon </t>
-  </si>
-  <si>
     <t>Opaczny</t>
   </si>
   <si>
@@ -200,55 +188,88 @@
     <t>Olimpijski</t>
   </si>
   <si>
+    <t>Kraków</t>
+  </si>
+  <si>
+    <t>Pacanów</t>
+  </si>
+  <si>
+    <t>ul. Nieistniejąca 2</t>
+  </si>
+  <si>
+    <t>Bżęczyszczykiewicze</t>
+  </si>
+  <si>
+    <t>ul. Niecodłuższa 33/4c</t>
+  </si>
+  <si>
+    <t>ul. Absolutnienajdłuższajakamożeprzejść 44 / 21 A</t>
+  </si>
+  <si>
+    <t>Koniuszowice 7</t>
+  </si>
+  <si>
+    <t>Kataryna@gmail.com</t>
+  </si>
+  <si>
+    <t>maria222@gmail.com</t>
+  </si>
+  <si>
+    <t>monumia@wp.pl</t>
+  </si>
+  <si>
+    <t>Akon990pp@op.pl</t>
+  </si>
+  <si>
+    <t>Demigod@oo.com</t>
+  </si>
+  <si>
+    <t>ul. Krótka 1</t>
+  </si>
+  <si>
+    <t>FALSE</t>
+  </si>
+  <si>
+    <t>123 123 123</t>
+  </si>
+  <si>
+    <t>888 888 999</t>
+  </si>
+  <si>
+    <t>320 129 399</t>
+  </si>
+  <si>
+    <t>444 232 421</t>
+  </si>
+  <si>
     <t>31-333</t>
   </si>
   <si>
-    <t>Kraków</t>
-  </si>
-  <si>
     <t>33-311</t>
   </si>
   <si>
-    <t>Pacanów</t>
-  </si>
-  <si>
     <t>11-666</t>
   </si>
   <si>
-    <t>ul. Nieistniejąca 2</t>
-  </si>
-  <si>
-    <t>Bżęczyszczykiewicze</t>
-  </si>
-  <si>
-    <t>ul. Niecodłuższa 33/4c</t>
-  </si>
-  <si>
-    <t>ul. Absolutnienajdłuższajakamożeprzejść 44 / 21 A</t>
-  </si>
-  <si>
-    <t>Koniuszowice 7</t>
+    <t>12-222</t>
   </si>
   <si>
     <t>55-565</t>
   </si>
   <si>
-    <t>Kataryna@gmail.com</t>
-  </si>
-  <si>
-    <t>maria222@gmail.com</t>
-  </si>
-  <si>
-    <t>monumia@wp.pl</t>
-  </si>
-  <si>
-    <t>Akon990pp@op.pl</t>
-  </si>
-  <si>
-    <t>Demigod@oo.com</t>
-  </si>
-  <si>
-    <t>ul. Krótka 1</t>
+    <t>Kataryna</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>Aganemnon</t>
+  </si>
+  <si>
+    <t>Anna</t>
+  </si>
+  <si>
+    <t>799 799 799</t>
   </si>
 </sst>
 </file>
@@ -293,18 +314,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -822,7 +840,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -866,132 +884,132 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>47</v>
+        <v>76</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="D2" s="4">
-        <v>123123123</v>
-      </c>
-      <c r="E2" s="2">
-        <v>0</v>
+        <v>79</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>49</v>
+        <v>77</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D3" s="4">
-        <v>799799799</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="G3" s="2" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="H3" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="4">
-        <v>888888999</v>
-      </c>
-      <c r="E4" s="2">
-        <v>0</v>
+        <v>49</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>66</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="2" t="s">
         <v>53</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D5" s="4">
-        <v>320129099</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="G5" s="4">
-        <v>12222</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>56</v>
-      </c>
-      <c r="D6" s="4">
-        <v>444232421</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1003,5 +1021,6 @@
     <hyperlink ref="A6" r:id="rId5" xr:uid="{883D663E-9FEA-429C-B166-5188591B32FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>